--- a/bioSample/bioSample_0731.xlsx
+++ b/bioSample/bioSample_0731.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">bioSampleNumber </t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>

--- a/bioSample/bioSample_0731.xlsx
+++ b/bioSample/bioSample_0731.xlsx
@@ -223,7 +223,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -269,7 +269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
@@ -277,7 +277,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>14</v>
@@ -298,7 +298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
@@ -306,7 +306,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>14</v>
@@ -327,7 +327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
@@ -335,7 +335,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>14</v>
@@ -356,7 +356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
@@ -364,7 +364,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>14</v>
@@ -385,7 +385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
@@ -393,7 +393,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>14</v>
@@ -414,7 +414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
@@ -422,7 +422,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>14</v>
@@ -443,7 +443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>20</v>
       </c>
@@ -451,7 +451,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>14</v>
@@ -472,7 +472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>20</v>
       </c>
@@ -480,7 +480,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>14</v>
@@ -501,7 +501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>20</v>
       </c>
@@ -509,7 +509,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>14</v>
@@ -530,7 +530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>20</v>
       </c>
@@ -538,7 +538,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>14</v>
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>20</v>
       </c>
@@ -567,7 +567,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>14</v>
@@ -588,7 +588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>20</v>
       </c>
@@ -596,7 +596,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>14</v>
@@ -617,7 +617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>20</v>
       </c>
@@ -625,7 +625,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>14</v>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>20</v>
       </c>
@@ -654,7 +654,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>14</v>
@@ -675,7 +675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>20</v>
       </c>
@@ -683,7 +683,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>14</v>
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>25</v>
       </c>
@@ -712,7 +712,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>14</v>
@@ -733,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>25</v>
       </c>
@@ -741,7 +741,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>14</v>
@@ -762,7 +762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>25</v>
       </c>
@@ -770,7 +770,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>14</v>

--- a/bioSample/bioSample_0731.xlsx
+++ b/bioSample/bioSample_0731.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A38681-6A49-994B-B674-D522454C6ABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32EED19-9730-864F-A76C-02D51ADD1E3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10740" yWindow="580" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,10 +121,10 @@
     <t>CNAG_03849</t>
   </si>
   <si>
-    <t>media</t>
-  </si>
-  <si>
     <t>DMEM</t>
+  </si>
+  <si>
+    <t>medium</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -522,7 +522,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -560,7 +560,7 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
@@ -595,7 +595,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
@@ -630,7 +630,7 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
         <v>18</v>
@@ -668,7 +668,7 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
@@ -709,7 +709,7 @@
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
@@ -750,7 +750,7 @@
         <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
@@ -788,7 +788,7 @@
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
@@ -823,7 +823,7 @@
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
@@ -858,7 +858,7 @@
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
         <v>18</v>
@@ -896,7 +896,7 @@
         <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J11" t="s">
         <v>18</v>
@@ -937,7 +937,7 @@
         <v>22</v>
       </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J12" t="s">
         <v>18</v>
@@ -978,7 +978,7 @@
         <v>22</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J13" t="s">
         <v>18</v>
@@ -1019,7 +1019,7 @@
         <v>22</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J14" t="s">
         <v>18</v>
@@ -1060,7 +1060,7 @@
         <v>22</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J15" t="s">
         <v>18</v>
@@ -1101,7 +1101,7 @@
         <v>22</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>
@@ -1142,7 +1142,7 @@
         <v>22</v>
       </c>
       <c r="I17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J17" t="s">
         <v>18</v>
@@ -1183,7 +1183,7 @@
         <v>22</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J18" t="s">
         <v>18</v>
@@ -1224,7 +1224,7 @@
         <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J19" t="s">
         <v>18</v>
